--- a/meinian_web/target/meinian_web-1.0-SNAPSHOT/template/report_template.xlsx
+++ b/meinian_web/target/meinian_web-1.0-SNAPSHOT/template/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>2022-09-20</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
@@ -720,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="5:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
